--- a/0_File/1_Data/003_武器表.xlsx
+++ b/0_File/1_Data/003_武器表.xlsx
@@ -7,14 +7,16 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="WeaponData" sheetId="1" r:id="rId1"/>
+    <sheet name=" ProjectileData" sheetId="3" r:id="rId2"/>
+    <sheet name="#欄位說明" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="78">
   <si>
     <t>int</t>
   </si>
@@ -83,13 +85,218 @@
   </si>
   <si>
     <t>發射音效</t>
+  </si>
+  <si>
+    <t>通用規則說明</t>
+  </si>
+  <si>
+    <t>註1</t>
+  </si>
+  <si>
+    <t>n_xxxx</t>
+  </si>
+  <si>
+    <t>n代表這格資料為單數</t>
+  </si>
+  <si>
+    <t>註2</t>
+  </si>
+  <si>
+    <t>an_xxx</t>
+  </si>
+  <si>
+    <t>an代表這格資料為陣列</t>
+  </si>
+  <si>
+    <t>註3</t>
+  </si>
+  <si>
+    <t>代表該欄位或工作表不輸出</t>
+  </si>
+  <si>
+    <t>欄位格式</t>
+  </si>
+  <si>
+    <t>欄位英文</t>
+  </si>
+  <si>
+    <t>欄位中文</t>
+  </si>
+  <si>
+    <t>欄位內容說明</t>
+  </si>
+  <si>
+    <t>WeaponData</t>
+  </si>
+  <si>
+    <t>武器編號，提供角色讀取用</t>
+  </si>
+  <si>
+    <t>企劃用，程式用不到</t>
+  </si>
+  <si>
+    <t>讀取字串表ID名稱，用來顯示介面上</t>
+  </si>
+  <si>
+    <t>讀取字串表ID描述，用來顯示介面上</t>
+  </si>
+  <si>
+    <t>分類使用，會與特定加成能力卡或道具、零件限制有關
+1=輕型
+2=中型
+3=重型</t>
+  </si>
+  <si>
+    <t>設定發射出去的子彈造成的傷害</t>
+  </si>
+  <si>
+    <t>設定攻擊頻率 (百分位來顯示，100=1秒)
+目前是秒數/次數</t>
+  </si>
+  <si>
+    <t>設定攻擊頻率上限
+目前是秒數/次數
+有一些道具是提升攻擊頻率，所以要設一個上限值</t>
+  </si>
+  <si>
+    <t>讀取Buff表ID
+預設給武器添加的效果</t>
+  </si>
+  <si>
+    <t>讀取投射物表ID
+當武器攻擊時會發射出的投射物</t>
+  </si>
+  <si>
+    <t>讀取音效表ID
+武器攻擊時套用的音效，主要是發射子彈出去時播放</t>
+  </si>
+  <si>
+    <t>n_ProjectileFlyWay</t>
+  </si>
+  <si>
+    <t>an_ProjectileFlyWayParam</t>
+  </si>
+  <si>
+    <t>n_ProjectilePrefab</t>
+  </si>
+  <si>
+    <t>n_ProjectileType</t>
+  </si>
+  <si>
+    <t>n_ProjectileTypeParam</t>
+  </si>
+  <si>
+    <t>n_ProjectileVelocity</t>
+  </si>
+  <si>
+    <t>an_ProjectileEndWay</t>
+  </si>
+  <si>
+    <t>an_ProjectileEndWayParam</t>
+  </si>
+  <si>
+    <t>n_ProjectileHitSFX</t>
+  </si>
+  <si>
+    <t>投射物表ID</t>
+  </si>
+  <si>
+    <t>投射物飛行方式</t>
+  </si>
+  <si>
+    <t>投射物飛行參數</t>
+  </si>
+  <si>
+    <t>投射物Prefab</t>
+  </si>
+  <si>
+    <t>投射物類型</t>
+  </si>
+  <si>
+    <t>投射物類型參數</t>
+  </si>
+  <si>
+    <t>投射物飛行速度/時間</t>
+  </si>
+  <si>
+    <t>投射物結束方式</t>
+  </si>
+  <si>
+    <t>投射物結束方式參數</t>
+  </si>
+  <si>
+    <t>投射物命中音效</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ProjectileData</t>
+  </si>
+  <si>
+    <t>ID唯一</t>
+  </si>
+  <si>
+    <t>決定投射物的飛行方式
+1=直線
+2=貫通
+3=彈射 (預設先不可重複彈跳)
+4=分裂
+5=散射
+6=拋物線</t>
+  </si>
+  <si>
+    <t>對應投射物飛行方式設定參數
+1= 0
+2= 0
+3= 命中目標後，下一個目標距離(格數)，可陣列填寫，若範圍內沒有敵人則作罷
+4= 命中後分散成幾個投射物 (分散後的投射物不會再次分散，依照結束方式)
+5= 設定3個參數 
+1.填寫陣列位置，每次攻擊會一口氣攻擊指定的陣列
+2.填寫落地位置，依照玩家所在位置計算往右幾格 (最遠打到敵方位置最右邊)
+3.填寫擴散位置，依照目標格子所在地，往上下左右擴散幾格
+6= 投射物進行拋物線的重力加速度值</t>
+  </si>
+  <si>
+    <t>填寫使用的prefab</t>
+  </si>
+  <si>
+    <t>定義投射物能否被
+0=不可阻擋
+1=可阻擋</t>
+  </si>
+  <si>
+    <t>0=0
+1=填寫抵銷多少數量</t>
+  </si>
+  <si>
+    <t>投射物飛行速度
+填寫抵達目標秒數 (百分位)
+100=1秒、10=0.1秒</t>
+  </si>
+  <si>
+    <t>0=無，超出範圍後 
+1=抵達目標 
+2=秒數 
+3=擊中目標幾次 
+4=命中幾個人後結束 
+5=抵達指定格子後</t>
+  </si>
+  <si>
+    <t>0=無
+1=無
+2=填寫秒數
+3=目標幾次
+4=命中幾個人
+5=格子距離</t>
+  </si>
+  <si>
+    <t>讀取音效表播放ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -111,8 +318,52 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -137,8 +388,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBE5D6"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor rgb="FF000080"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -161,11 +430,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -177,9 +460,44 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="一般 4" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -483,11 +801,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.75" bestFit="1" customWidth="1"/>
@@ -502,7 +820,7 @@
     <col min="11" max="11" width="12.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,7 +855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -572,7 +890,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -607,7 +925,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -620,7 +938,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -633,7 +951,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -646,7 +964,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -659,7 +977,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -672,7 +990,7 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -685,7 +1003,7 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -698,7 +1016,7 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -711,7 +1029,7 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -724,7 +1042,7 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -737,7 +1055,7 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -755,4 +1073,642 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection sqref="A1:J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="24.125" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="9.75" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.625" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="24.125" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.375" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="11.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="22.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="16.375" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="27">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="27">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="67.5">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="40.5">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="67.5">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="27">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="27">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="40.5">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="94.5">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="256.5">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="40.5">
+      <c r="A30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="27">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="40.5">
+      <c r="A32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="81">
+      <c r="A33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="81">
+      <c r="A34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/0_File/1_Data/003_武器表.xlsx
+++ b/0_File/1_Data/003_武器表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponDataInUnity" sheetId="4" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name=" ProjectileData" sheetId="3" r:id="rId4"/>
     <sheet name="#欄位說明" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1208,8 +1208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1512,7 +1512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>

--- a/0_File/1_Data/003_武器表.xlsx
+++ b/0_File/1_Data/003_武器表.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="129">
   <si>
     <t>int</t>
   </si>
@@ -294,7 +294,207 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>備註</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手槍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>機槍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狙擊槍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手槍子彈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>機槍子彈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狙擊槍子彈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>散彈槍子彈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>散彈槍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>飛行方式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>直線</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>貫通</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>直線</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>散射</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分裂子彈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分裂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拋物線子彈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拋射</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>彈射子彈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>彈射</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>參數意思</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>填寫角色前方散彈發射角度、填寫發射範圍格數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中後分裂幾顆，分裂的子彈會自動找敵人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.投射物落地距離自己的位置直線多遠
+2.擴散範圍幾格 (按照落地點中心上下左右單格)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可抵銷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可抵消</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>參數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抵擋幾發子彈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投射物類型意思</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>無，超出範圍後</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>飛行多久消失</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>擊中目標幾次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抵達指定格子後</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中幾個人後結束 (彈射用)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抵達目標 (命中目標)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Projectile</t>
+  </si>
+  <si>
+    <t>s_ProjectilePrefab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拋射槍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>彈跳槍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分裂槍</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -454,7 +654,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -486,10 +686,6 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -499,6 +695,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -807,9 +1027,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
@@ -1206,299 +1424,478 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9:I10"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="40.5">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:16" ht="40.5">
+      <c r="A1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="H1" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="K1" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="L1" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="M1" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="N1" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="O1" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="P1" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="15">
-        <v>0</v>
-      </c>
-      <c r="B2" s="15">
-        <v>0</v>
-      </c>
-      <c r="C2" s="15">
-        <v>0</v>
-      </c>
-      <c r="D2" s="15">
-        <v>0</v>
-      </c>
-      <c r="E2" s="15">
-        <v>0</v>
-      </c>
-      <c r="F2" s="15">
-        <v>0</v>
-      </c>
-      <c r="G2" s="15">
-        <v>0</v>
-      </c>
-      <c r="H2" s="15">
-        <v>0</v>
-      </c>
-      <c r="I2" s="15">
-        <v>0</v>
-      </c>
-      <c r="J2" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="15">
-        <v>0</v>
-      </c>
-      <c r="B3" s="15">
-        <v>0</v>
-      </c>
-      <c r="C3" s="15">
-        <v>0</v>
-      </c>
-      <c r="D3" s="15">
-        <v>0</v>
-      </c>
-      <c r="E3" s="15">
-        <v>0</v>
-      </c>
-      <c r="F3" s="15">
-        <v>0</v>
-      </c>
-      <c r="G3" s="15">
-        <v>0</v>
-      </c>
-      <c r="H3" s="15">
-        <v>0</v>
-      </c>
-      <c r="I3" s="15">
-        <v>0</v>
-      </c>
-      <c r="J3" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="15">
-        <v>0</v>
-      </c>
-      <c r="B4" s="15">
-        <v>0</v>
-      </c>
-      <c r="C4" s="15">
-        <v>0</v>
-      </c>
-      <c r="D4" s="15">
-        <v>0</v>
-      </c>
-      <c r="E4" s="15">
-        <v>0</v>
-      </c>
-      <c r="F4" s="15">
-        <v>0</v>
-      </c>
-      <c r="G4" s="15">
-        <v>0</v>
-      </c>
-      <c r="H4" s="15">
-        <v>0</v>
-      </c>
-      <c r="I4" s="15">
-        <v>0</v>
-      </c>
-      <c r="J4" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="15">
-        <v>0</v>
-      </c>
-      <c r="B5" s="15">
-        <v>0</v>
-      </c>
-      <c r="C5" s="15">
-        <v>0</v>
-      </c>
-      <c r="D5" s="15">
-        <v>0</v>
-      </c>
-      <c r="E5" s="15">
-        <v>0</v>
-      </c>
-      <c r="F5" s="15">
-        <v>0</v>
-      </c>
-      <c r="G5" s="15">
-        <v>0</v>
-      </c>
-      <c r="H5" s="15">
-        <v>0</v>
-      </c>
-      <c r="I5" s="15">
-        <v>0</v>
-      </c>
-      <c r="J5" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="15">
-        <v>0</v>
-      </c>
-      <c r="B6" s="15">
-        <v>0</v>
-      </c>
-      <c r="C6" s="15">
-        <v>0</v>
-      </c>
-      <c r="D6" s="15">
-        <v>0</v>
-      </c>
-      <c r="E6" s="15">
-        <v>0</v>
-      </c>
-      <c r="F6" s="15">
-        <v>0</v>
-      </c>
-      <c r="G6" s="15">
-        <v>0</v>
-      </c>
-      <c r="H6" s="15">
-        <v>0</v>
-      </c>
-      <c r="I6" s="15">
-        <v>0</v>
-      </c>
-      <c r="J6" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="15">
-        <v>0</v>
-      </c>
-      <c r="B7" s="15">
-        <v>0</v>
-      </c>
-      <c r="C7" s="15">
-        <v>0</v>
-      </c>
-      <c r="D7" s="15">
-        <v>0</v>
-      </c>
-      <c r="E7" s="15">
-        <v>0</v>
-      </c>
-      <c r="F7" s="15">
-        <v>0</v>
-      </c>
-      <c r="G7" s="15">
-        <v>0</v>
-      </c>
-      <c r="H7" s="15">
-        <v>0</v>
-      </c>
-      <c r="I7" s="15">
-        <v>0</v>
-      </c>
-      <c r="J7" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="15">
-        <v>0</v>
-      </c>
-      <c r="B8" s="15">
-        <v>0</v>
-      </c>
-      <c r="C8" s="15">
-        <v>0</v>
-      </c>
-      <c r="D8" s="15">
-        <v>0</v>
-      </c>
-      <c r="E8" s="15">
-        <v>0</v>
-      </c>
-      <c r="F8" s="15">
-        <v>0</v>
-      </c>
-      <c r="G8" s="15">
-        <v>0</v>
-      </c>
-      <c r="H8" s="15">
-        <v>0</v>
-      </c>
-      <c r="I8" s="15">
-        <v>0</v>
-      </c>
-      <c r="J8" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="15">
-        <v>0</v>
-      </c>
-      <c r="B9" s="15">
-        <v>0</v>
-      </c>
-      <c r="C9" s="15">
-        <v>0</v>
-      </c>
-      <c r="D9" s="15">
-        <v>0</v>
-      </c>
-      <c r="E9" s="15">
-        <v>0</v>
-      </c>
-      <c r="F9" s="15">
-        <v>0</v>
-      </c>
-      <c r="G9" s="15">
-        <v>0</v>
-      </c>
-      <c r="H9" s="15">
-        <v>0</v>
-      </c>
-      <c r="I9" s="15">
-        <v>0</v>
-      </c>
-      <c r="J9" s="15">
+    <row r="2" spans="1:16">
+      <c r="A2" s="13">
+        <v>0</v>
+      </c>
+      <c r="B2" s="13">
+        <v>0</v>
+      </c>
+      <c r="C2" s="13">
+        <v>0</v>
+      </c>
+      <c r="D2" s="13">
+        <v>0</v>
+      </c>
+      <c r="E2" s="13">
+        <v>0</v>
+      </c>
+      <c r="F2" s="13">
+        <v>0</v>
+      </c>
+      <c r="G2" s="13">
+        <v>0</v>
+      </c>
+      <c r="H2" s="13">
+        <v>0</v>
+      </c>
+      <c r="I2" s="13">
+        <v>0</v>
+      </c>
+      <c r="J2" s="13">
+        <v>0</v>
+      </c>
+      <c r="K2" s="13">
+        <v>0</v>
+      </c>
+      <c r="L2" s="13">
+        <v>0</v>
+      </c>
+      <c r="M2" s="13">
+        <v>0</v>
+      </c>
+      <c r="N2" s="13">
+        <v>0</v>
+      </c>
+      <c r="O2" s="13">
+        <v>0</v>
+      </c>
+      <c r="P2" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="13">
+        <v>0</v>
+      </c>
+      <c r="B3" s="13">
+        <v>0</v>
+      </c>
+      <c r="C3" s="13">
+        <v>0</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0</v>
+      </c>
+      <c r="E3" s="13">
+        <v>0</v>
+      </c>
+      <c r="F3" s="13">
+        <v>0</v>
+      </c>
+      <c r="G3" s="13">
+        <v>0</v>
+      </c>
+      <c r="H3" s="13">
+        <v>0</v>
+      </c>
+      <c r="I3" s="13">
+        <v>0</v>
+      </c>
+      <c r="J3" s="13">
+        <v>0</v>
+      </c>
+      <c r="K3" s="13">
+        <v>0</v>
+      </c>
+      <c r="L3" s="13">
+        <v>0</v>
+      </c>
+      <c r="M3" s="13">
+        <v>0</v>
+      </c>
+      <c r="N3" s="13">
+        <v>0</v>
+      </c>
+      <c r="O3" s="13">
+        <v>0</v>
+      </c>
+      <c r="P3" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="13">
+        <v>0</v>
+      </c>
+      <c r="B4" s="13">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13">
+        <v>0</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0</v>
+      </c>
+      <c r="G4" s="13">
+        <v>0</v>
+      </c>
+      <c r="H4" s="13">
+        <v>0</v>
+      </c>
+      <c r="I4" s="13">
+        <v>0</v>
+      </c>
+      <c r="J4" s="13">
+        <v>0</v>
+      </c>
+      <c r="K4" s="13">
+        <v>0</v>
+      </c>
+      <c r="L4" s="13">
+        <v>0</v>
+      </c>
+      <c r="M4" s="13">
+        <v>0</v>
+      </c>
+      <c r="N4" s="13">
+        <v>0</v>
+      </c>
+      <c r="O4" s="13">
+        <v>0</v>
+      </c>
+      <c r="P4" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="13">
+        <v>0</v>
+      </c>
+      <c r="B5" s="13">
+        <v>0</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0</v>
+      </c>
+      <c r="I5" s="13">
+        <v>0</v>
+      </c>
+      <c r="J5" s="13">
+        <v>0</v>
+      </c>
+      <c r="K5" s="13">
+        <v>0</v>
+      </c>
+      <c r="L5" s="13">
+        <v>0</v>
+      </c>
+      <c r="M5" s="13">
+        <v>0</v>
+      </c>
+      <c r="N5" s="13">
+        <v>0</v>
+      </c>
+      <c r="O5" s="13">
+        <v>0</v>
+      </c>
+      <c r="P5" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="13">
+        <v>0</v>
+      </c>
+      <c r="B6" s="13">
+        <v>0</v>
+      </c>
+      <c r="C6" s="13">
+        <v>0</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0</v>
+      </c>
+      <c r="K6" s="13">
+        <v>0</v>
+      </c>
+      <c r="L6" s="13">
+        <v>0</v>
+      </c>
+      <c r="M6" s="13">
+        <v>0</v>
+      </c>
+      <c r="N6" s="13">
+        <v>0</v>
+      </c>
+      <c r="O6" s="13">
+        <v>0</v>
+      </c>
+      <c r="P6" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="13">
+        <v>0</v>
+      </c>
+      <c r="B7" s="13">
+        <v>0</v>
+      </c>
+      <c r="C7" s="13">
+        <v>0</v>
+      </c>
+      <c r="D7" s="13">
+        <v>0</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0</v>
+      </c>
+      <c r="K7" s="13">
+        <v>0</v>
+      </c>
+      <c r="L7" s="13">
+        <v>0</v>
+      </c>
+      <c r="M7" s="13">
+        <v>0</v>
+      </c>
+      <c r="N7" s="13">
+        <v>0</v>
+      </c>
+      <c r="O7" s="13">
+        <v>0</v>
+      </c>
+      <c r="P7" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="13">
+        <v>0</v>
+      </c>
+      <c r="B8" s="13">
+        <v>0</v>
+      </c>
+      <c r="C8" s="13">
+        <v>0</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0</v>
+      </c>
+      <c r="G8" s="13">
+        <v>0</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0</v>
+      </c>
+      <c r="I8" s="13">
+        <v>0</v>
+      </c>
+      <c r="J8" s="13">
+        <v>0</v>
+      </c>
+      <c r="K8" s="13">
+        <v>0</v>
+      </c>
+      <c r="L8" s="13">
+        <v>0</v>
+      </c>
+      <c r="M8" s="13">
+        <v>0</v>
+      </c>
+      <c r="N8" s="13">
+        <v>0</v>
+      </c>
+      <c r="O8" s="13">
+        <v>0</v>
+      </c>
+      <c r="P8" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="13">
+        <v>0</v>
+      </c>
+      <c r="B9" s="13">
+        <v>0</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0</v>
+      </c>
+      <c r="D9" s="13">
+        <v>0</v>
+      </c>
+      <c r="E9" s="13">
+        <v>0</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0</v>
+      </c>
+      <c r="G9" s="13">
+        <v>0</v>
+      </c>
+      <c r="H9" s="13">
+        <v>0</v>
+      </c>
+      <c r="I9" s="13">
+        <v>0</v>
+      </c>
+      <c r="J9" s="13">
+        <v>0</v>
+      </c>
+      <c r="K9" s="13">
+        <v>0</v>
+      </c>
+      <c r="L9" s="13">
+        <v>0</v>
+      </c>
+      <c r="M9" s="13">
+        <v>0</v>
+      </c>
+      <c r="N9" s="13">
+        <v>0</v>
+      </c>
+      <c r="O9" s="13">
+        <v>0</v>
+      </c>
+      <c r="P9" s="13">
         <v>0</v>
       </c>
     </row>
@@ -1510,276 +1907,394 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.25" style="18" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.125" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.625" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.625" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.125" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.625" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="15.75" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="C1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="17" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="20" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
+      <c r="A4" s="21">
+        <v>1</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="21">
+        <f>A4+302000</f>
+        <v>302001</v>
+      </c>
+      <c r="D4" s="21">
+        <f>C4+1000</f>
+        <v>303001</v>
+      </c>
+      <c r="E4" s="21">
+        <v>1</v>
+      </c>
+      <c r="F4" s="21">
+        <v>5</v>
+      </c>
+      <c r="G4" s="21">
+        <v>100</v>
+      </c>
+      <c r="H4" s="21">
+        <v>50</v>
+      </c>
+      <c r="I4" s="21">
+        <v>0</v>
+      </c>
+      <c r="J4" s="21">
+        <v>1</v>
+      </c>
+      <c r="K4" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="A5" s="21">
+        <f>A4+1</f>
+        <v>2</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="21">
+        <f t="shared" ref="C5:C10" si="0">A5+302000</f>
+        <v>302002</v>
+      </c>
+      <c r="D5" s="21">
+        <f t="shared" ref="D5:D10" si="1">C5+1000</f>
+        <v>303002</v>
+      </c>
+      <c r="E5" s="21">
+        <v>2</v>
+      </c>
+      <c r="F5" s="21">
+        <v>10</v>
+      </c>
+      <c r="G5" s="21">
+        <v>150</v>
+      </c>
+      <c r="H5" s="21">
+        <v>100</v>
+      </c>
+      <c r="I5" s="21">
+        <v>0</v>
+      </c>
+      <c r="J5" s="21">
+        <v>2</v>
+      </c>
+      <c r="K5" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
+      <c r="A6" s="21">
+        <f t="shared" ref="A6:A7" si="2">A5+1</f>
+        <v>3</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="21">
+        <f t="shared" si="0"/>
+        <v>302003</v>
+      </c>
+      <c r="D6" s="21">
+        <f t="shared" si="1"/>
+        <v>303003</v>
+      </c>
+      <c r="E6" s="21">
+        <v>3</v>
+      </c>
+      <c r="F6" s="21">
+        <v>50</v>
+      </c>
+      <c r="G6" s="21">
+        <v>200</v>
+      </c>
+      <c r="H6" s="21">
+        <v>150</v>
+      </c>
+      <c r="I6" s="21">
+        <v>0</v>
+      </c>
+      <c r="J6" s="21">
+        <v>3</v>
+      </c>
+      <c r="K6" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="A7" s="21">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="21">
+        <f t="shared" si="0"/>
+        <v>302004</v>
+      </c>
+      <c r="D7" s="21">
+        <f t="shared" si="1"/>
+        <v>303004</v>
+      </c>
+      <c r="E7" s="21">
+        <v>3</v>
+      </c>
+      <c r="F7" s="21">
+        <v>30</v>
+      </c>
+      <c r="G7" s="21">
+        <v>150</v>
+      </c>
+      <c r="H7" s="21">
+        <v>100</v>
+      </c>
+      <c r="I7" s="21">
+        <v>0</v>
+      </c>
+      <c r="J7" s="21">
+        <v>4</v>
+      </c>
+      <c r="K7" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="A8" s="21">
+        <v>5</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="21">
+        <f t="shared" ref="C8" si="3">A8+302000</f>
+        <v>302005</v>
+      </c>
+      <c r="D8" s="21">
+        <f t="shared" ref="D8" si="4">C8+1000</f>
+        <v>303005</v>
+      </c>
+      <c r="E8" s="21">
+        <v>2</v>
+      </c>
+      <c r="F8" s="21">
+        <v>10</v>
+      </c>
+      <c r="G8" s="21">
+        <v>100</v>
+      </c>
+      <c r="H8" s="21">
+        <v>50</v>
+      </c>
+      <c r="I8" s="21">
+        <v>0</v>
+      </c>
+      <c r="J8" s="21">
+        <v>5</v>
+      </c>
+      <c r="K8" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="A9" s="21">
+        <v>6</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="21">
+        <f t="shared" si="0"/>
+        <v>302006</v>
+      </c>
+      <c r="D9" s="21">
+        <f t="shared" si="1"/>
+        <v>303006</v>
+      </c>
+      <c r="E9" s="21">
+        <v>3</v>
+      </c>
+      <c r="F9" s="21">
+        <v>100</v>
+      </c>
+      <c r="G9" s="21">
+        <v>300</v>
+      </c>
+      <c r="H9" s="21">
+        <v>250</v>
+      </c>
+      <c r="I9" s="21">
+        <v>0</v>
+      </c>
+      <c r="J9" s="21">
+        <v>6</v>
+      </c>
+      <c r="K9" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
+      <c r="A10" s="21">
+        <v>7</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="21">
+        <f t="shared" si="0"/>
+        <v>302007</v>
+      </c>
+      <c r="D10" s="21">
+        <f t="shared" si="1"/>
+        <v>303007</v>
+      </c>
+      <c r="E10" s="21">
+        <v>2</v>
+      </c>
+      <c r="F10" s="21">
+        <v>5</v>
+      </c>
+      <c r="G10" s="21">
+        <v>100</v>
+      </c>
+      <c r="H10" s="21">
+        <v>50</v>
+      </c>
+      <c r="I10" s="21">
+        <v>0</v>
+      </c>
+      <c r="J10" s="21">
+        <v>7</v>
+      </c>
+      <c r="K10" s="21">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1790,218 +2305,518 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J11"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.125" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="9.75" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.625" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.125" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.625" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="24.125" style="14"/>
+    <col min="1" max="1" width="9.75" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.625" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.625" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.375" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.125" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.125" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.375" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.875" style="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.625" style="18" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="24.125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:16">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="O3" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="P3" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="23">
+        <v>1</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="23">
+        <v>1</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="23">
+        <v>0</v>
+      </c>
+      <c r="F4" s="23">
+        <v>0</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4" s="23">
+        <v>0</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="J4" s="23">
+        <v>0</v>
+      </c>
+      <c r="K4" s="23">
+        <v>0</v>
+      </c>
+      <c r="L4" s="23">
+        <v>100</v>
+      </c>
+      <c r="M4" s="23">
+        <v>0</v>
+      </c>
+      <c r="N4" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="O4" s="23">
+        <v>0</v>
+      </c>
+      <c r="P4" s="23"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="23">
+        <v>2</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="23">
+        <v>2</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="23">
+        <v>0</v>
+      </c>
+      <c r="F5" s="23">
+        <v>0</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="H5" s="23">
+        <v>1</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="J5" s="23">
+        <v>3</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="L5" s="23">
+        <v>100</v>
+      </c>
+      <c r="M5" s="23">
+        <v>1</v>
+      </c>
+      <c r="N5" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="O5" s="23">
+        <v>0</v>
+      </c>
+      <c r="P5" s="23"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="23">
+        <v>3</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="23">
+        <v>3</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="23">
+        <v>0</v>
+      </c>
+      <c r="F6" s="23">
+        <v>0</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="H6" s="23">
+        <v>0</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="J6" s="23">
+        <v>0</v>
+      </c>
+      <c r="K6" s="23">
+        <v>0</v>
+      </c>
+      <c r="L6" s="23">
+        <v>100</v>
+      </c>
+      <c r="M6" s="23">
+        <v>2</v>
+      </c>
+      <c r="N6" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="O6" s="23">
         <v>50</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
+      <c r="P6" s="23"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="23">
+        <v>4</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="23">
+        <v>4</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="H7" s="23">
+        <v>0</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="J7" s="23">
+        <v>0</v>
+      </c>
+      <c r="K7" s="23">
+        <v>0</v>
+      </c>
+      <c r="L7" s="23">
+        <v>100</v>
+      </c>
+      <c r="M7" s="23">
+        <v>3</v>
+      </c>
+      <c r="N7" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="O7" s="23">
+        <v>1</v>
+      </c>
+      <c r="P7" s="23"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="23">
+        <v>5</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="23">
+        <v>5</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="23">
+        <v>2</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="H8" s="23">
+        <v>0</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="J8" s="23">
+        <v>0</v>
+      </c>
+      <c r="K8" s="23">
+        <v>0</v>
+      </c>
+      <c r="L8" s="23">
+        <v>100</v>
+      </c>
+      <c r="M8" s="23">
+        <v>1</v>
+      </c>
+      <c r="N8" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="O8" s="23">
+        <v>0</v>
+      </c>
+      <c r="P8" s="23"/>
+    </row>
+    <row r="9" spans="1:16" ht="27">
+      <c r="A9" s="23">
+        <v>6</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="23">
+        <v>6</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="H9" s="23">
+        <v>0</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9" s="23">
+        <v>0</v>
+      </c>
+      <c r="K9" s="23">
+        <v>0</v>
+      </c>
+      <c r="L9" s="23">
+        <v>100</v>
+      </c>
+      <c r="M9" s="23">
+        <v>5</v>
+      </c>
+      <c r="N9" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="O9" s="23">
+        <v>0</v>
+      </c>
+      <c r="P9" s="23"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="23">
+        <v>7</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="23">
+        <v>7</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="23">
+        <v>0</v>
+      </c>
+      <c r="F10" s="23">
+        <v>0</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="H10" s="23">
+        <v>0</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10" s="23">
+        <v>0</v>
+      </c>
+      <c r="K10" s="23">
+        <v>0</v>
+      </c>
+      <c r="L10" s="23">
+        <v>100</v>
+      </c>
+      <c r="M10" s="23">
+        <v>6</v>
+      </c>
+      <c r="N10" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="O10" s="23">
+        <v>3</v>
+      </c>
+      <c r="P10" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2014,7 +2829,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.375" defaultRowHeight="13.5"/>
@@ -2022,7 +2837,7 @@
     <col min="1" max="1" width="11.375" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.125" style="6" customWidth="1"/>
     <col min="3" max="3" width="22.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.5" style="6" customWidth="1"/>
     <col min="5" max="16384" width="16.375" style="6"/>
   </cols>
   <sheetData>
@@ -2132,7 +2947,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="27">
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -2146,7 +2961,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="27">
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -2156,11 +2971,11 @@
       <c r="C12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="67.5">
+    <row r="13" spans="1:4" ht="54">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -2188,7 +3003,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="40.5">
+    <row r="15" spans="1:4" ht="27">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -2202,7 +3017,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="67.5">
+    <row r="16" spans="1:4" ht="54">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -2212,7 +3027,7 @@
       <c r="C16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="22" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2244,7 +3059,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="40.5">
+    <row r="19" spans="1:4" ht="27">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -2259,24 +3074,24 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="15" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2290,7 +3105,7 @@
       <c r="C26" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="16" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2304,11 +3119,11 @@
       <c r="C27" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="16" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="256.5">
+    <row r="28" spans="1:4" ht="135">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -2318,7 +3133,7 @@
       <c r="C28" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="16" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2332,7 +3147,7 @@
       <c r="C29" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="16" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2346,7 +3161,7 @@
       <c r="C30" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="16" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2360,7 +3175,7 @@
       <c r="C31" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="16" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2374,7 +3189,7 @@
       <c r="C32" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="16" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2388,7 +3203,7 @@
       <c r="C33" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="D33" s="16" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2402,7 +3217,7 @@
       <c r="C34" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="D34" s="16" t="s">
         <v>76</v>
       </c>
     </row>

--- a/0_File/1_Data/003_武器表.xlsx
+++ b/0_File/1_Data/003_武器表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponDataInUnity" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="130">
   <si>
     <t>int</t>
   </si>
@@ -495,6 +495,10 @@
   </si>
   <si>
     <t>分裂槍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -665,7 +669,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -719,6 +722,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1027,391 +1033,405 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="40.5">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" ht="27">
+      <c r="A1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="4">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4">
-        <v>0</v>
-      </c>
-      <c r="J2" s="4">
+      <c r="A2" s="12">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12">
+        <v>0</v>
+      </c>
+      <c r="D2" s="12">
+        <v>0</v>
+      </c>
+      <c r="E2" s="12">
+        <v>0</v>
+      </c>
+      <c r="F2" s="12">
+        <v>0</v>
+      </c>
+      <c r="G2" s="12">
+        <v>0</v>
+      </c>
+      <c r="H2" s="12">
+        <v>0</v>
+      </c>
+      <c r="I2" s="12">
+        <v>0</v>
+      </c>
+      <c r="J2" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="4">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4">
+      <c r="A3" s="12">
+        <v>0</v>
+      </c>
+      <c r="B3" s="12">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12">
+        <v>0</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0</v>
+      </c>
+      <c r="F3" s="12">
+        <v>0</v>
+      </c>
+      <c r="G3" s="12">
+        <v>0</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0</v>
+      </c>
+      <c r="J3" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="4">
-        <v>0</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
+      <c r="A4" s="12">
+        <v>0</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0</v>
+      </c>
+      <c r="G4" s="12">
+        <v>0</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0</v>
+      </c>
+      <c r="J4" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="4">
-        <v>0</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
-      <c r="J5" s="4">
+      <c r="A5" s="12">
+        <v>0</v>
+      </c>
+      <c r="B5" s="12">
+        <v>0</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0</v>
+      </c>
+      <c r="J5" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="4">
-        <v>0</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4">
+      <c r="A6" s="12">
+        <v>0</v>
+      </c>
+      <c r="B6" s="12">
+        <v>0</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0</v>
+      </c>
+      <c r="F6" s="12">
+        <v>0</v>
+      </c>
+      <c r="G6" s="12">
+        <v>0</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0</v>
+      </c>
+      <c r="J6" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="4">
-        <v>0</v>
-      </c>
-      <c r="B7" s="4">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
+      <c r="A7" s="12">
+        <v>0</v>
+      </c>
+      <c r="B7" s="12">
+        <v>0</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0</v>
+      </c>
+      <c r="F7" s="12">
+        <v>0</v>
+      </c>
+      <c r="G7" s="12">
+        <v>0</v>
+      </c>
+      <c r="H7" s="12">
+        <v>0</v>
+      </c>
+      <c r="I7" s="12">
+        <v>0</v>
+      </c>
+      <c r="J7" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="4">
-        <v>0</v>
-      </c>
-      <c r="B8" s="4">
-        <v>0</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
+      <c r="A8" s="12">
+        <v>0</v>
+      </c>
+      <c r="B8" s="12">
+        <v>0</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0</v>
+      </c>
+      <c r="F8" s="12">
+        <v>0</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0</v>
+      </c>
+      <c r="J8" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="4">
-        <v>0</v>
-      </c>
-      <c r="B9" s="4">
-        <v>0</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
+      <c r="A9" s="12">
+        <v>0</v>
+      </c>
+      <c r="B9" s="12">
+        <v>0</v>
+      </c>
+      <c r="C9" s="12">
+        <v>0</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0</v>
+      </c>
+      <c r="F9" s="12">
+        <v>0</v>
+      </c>
+      <c r="G9" s="12">
+        <v>0</v>
+      </c>
+      <c r="H9" s="12">
+        <v>0</v>
+      </c>
+      <c r="I9" s="12">
+        <v>0</v>
+      </c>
+      <c r="J9" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="4">
-        <v>0</v>
-      </c>
-      <c r="B10" s="4">
-        <v>0</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0</v>
-      </c>
-      <c r="J10" s="4">
+      <c r="A10" s="12">
+        <v>0</v>
+      </c>
+      <c r="B10" s="12">
+        <v>0</v>
+      </c>
+      <c r="C10" s="12">
+        <v>0</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0</v>
+      </c>
+      <c r="G10" s="12">
+        <v>0</v>
+      </c>
+      <c r="H10" s="12">
+        <v>0</v>
+      </c>
+      <c r="I10" s="12">
+        <v>0</v>
+      </c>
+      <c r="J10" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="4">
-        <v>0</v>
-      </c>
-      <c r="B11" s="4">
-        <v>0</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0</v>
-      </c>
-      <c r="J11" s="4">
+      <c r="A11" s="12">
+        <v>0</v>
+      </c>
+      <c r="B11" s="12">
+        <v>0</v>
+      </c>
+      <c r="C11" s="12">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0</v>
+      </c>
+      <c r="F11" s="12">
+        <v>0</v>
+      </c>
+      <c r="G11" s="12">
+        <v>0</v>
+      </c>
+      <c r="H11" s="12">
+        <v>0</v>
+      </c>
+      <c r="I11" s="12">
+        <v>0</v>
+      </c>
+      <c r="J11" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="4">
-        <v>0</v>
-      </c>
-      <c r="B12" s="4">
-        <v>0</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0</v>
-      </c>
-      <c r="G12" s="4">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
+      <c r="A12" s="12">
+        <v>0</v>
+      </c>
+      <c r="B12" s="12">
+        <v>0</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="12">
+        <v>0</v>
+      </c>
+      <c r="J12" s="12">
         <v>0</v>
       </c>
     </row>
@@ -1427,475 +1447,477 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="17.75" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.875" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.25" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.875" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.625" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.875" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.25" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.125" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.875" style="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.875" style="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.875" style="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.75" style="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.125" style="24" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.875" style="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.125" style="24" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.625" style="24" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="17.75" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="40.5">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:16" ht="27">
+      <c r="A1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="19" t="s">
+      <c r="B1" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" s="19" t="s">
+      <c r="D1" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="G1" s="19" t="s">
+      <c r="F1" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="L1" s="19" t="s">
+      <c r="K1" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="L1" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="P1" s="18" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="13">
-        <v>0</v>
-      </c>
-      <c r="B2" s="13">
-        <v>0</v>
-      </c>
-      <c r="C2" s="13">
-        <v>0</v>
-      </c>
-      <c r="D2" s="13">
-        <v>0</v>
-      </c>
-      <c r="E2" s="13">
-        <v>0</v>
-      </c>
-      <c r="F2" s="13">
-        <v>0</v>
-      </c>
-      <c r="G2" s="13">
-        <v>0</v>
-      </c>
-      <c r="H2" s="13">
-        <v>0</v>
-      </c>
-      <c r="I2" s="13">
-        <v>0</v>
-      </c>
-      <c r="J2" s="13">
-        <v>0</v>
-      </c>
-      <c r="K2" s="13">
-        <v>0</v>
-      </c>
-      <c r="L2" s="13">
-        <v>0</v>
-      </c>
-      <c r="M2" s="13">
-        <v>0</v>
-      </c>
-      <c r="N2" s="13">
-        <v>0</v>
-      </c>
-      <c r="O2" s="13">
-        <v>0</v>
-      </c>
-      <c r="P2" s="13">
+      <c r="A2" s="20">
+        <v>0</v>
+      </c>
+      <c r="B2" s="20">
+        <v>0</v>
+      </c>
+      <c r="C2" s="20">
+        <v>0</v>
+      </c>
+      <c r="D2" s="20">
+        <v>0</v>
+      </c>
+      <c r="E2" s="20">
+        <v>0</v>
+      </c>
+      <c r="F2" s="20">
+        <v>0</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="20">
+        <v>0</v>
+      </c>
+      <c r="I2" s="20">
+        <v>0</v>
+      </c>
+      <c r="J2" s="20">
+        <v>0</v>
+      </c>
+      <c r="K2" s="20">
+        <v>0</v>
+      </c>
+      <c r="L2" s="20">
+        <v>0</v>
+      </c>
+      <c r="M2" s="20">
+        <v>0</v>
+      </c>
+      <c r="N2" s="20">
+        <v>0</v>
+      </c>
+      <c r="O2" s="20">
+        <v>0</v>
+      </c>
+      <c r="P2" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="13">
-        <v>0</v>
-      </c>
-      <c r="B3" s="13">
-        <v>0</v>
-      </c>
-      <c r="C3" s="13">
-        <v>0</v>
-      </c>
-      <c r="D3" s="13">
-        <v>0</v>
-      </c>
-      <c r="E3" s="13">
-        <v>0</v>
-      </c>
-      <c r="F3" s="13">
-        <v>0</v>
-      </c>
-      <c r="G3" s="13">
-        <v>0</v>
-      </c>
-      <c r="H3" s="13">
-        <v>0</v>
-      </c>
-      <c r="I3" s="13">
-        <v>0</v>
-      </c>
-      <c r="J3" s="13">
-        <v>0</v>
-      </c>
-      <c r="K3" s="13">
-        <v>0</v>
-      </c>
-      <c r="L3" s="13">
-        <v>0</v>
-      </c>
-      <c r="M3" s="13">
-        <v>0</v>
-      </c>
-      <c r="N3" s="13">
-        <v>0</v>
-      </c>
-      <c r="O3" s="13">
-        <v>0</v>
-      </c>
-      <c r="P3" s="13">
+      <c r="A3" s="20">
+        <v>0</v>
+      </c>
+      <c r="B3" s="20">
+        <v>0</v>
+      </c>
+      <c r="C3" s="20">
+        <v>0</v>
+      </c>
+      <c r="D3" s="20">
+        <v>0</v>
+      </c>
+      <c r="E3" s="20">
+        <v>0</v>
+      </c>
+      <c r="F3" s="20">
+        <v>0</v>
+      </c>
+      <c r="G3" s="20">
+        <v>0</v>
+      </c>
+      <c r="H3" s="20">
+        <v>0</v>
+      </c>
+      <c r="I3" s="20">
+        <v>0</v>
+      </c>
+      <c r="J3" s="20">
+        <v>0</v>
+      </c>
+      <c r="K3" s="20">
+        <v>0</v>
+      </c>
+      <c r="L3" s="20">
+        <v>0</v>
+      </c>
+      <c r="M3" s="20">
+        <v>0</v>
+      </c>
+      <c r="N3" s="20">
+        <v>0</v>
+      </c>
+      <c r="O3" s="20">
+        <v>0</v>
+      </c>
+      <c r="P3" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="13">
-        <v>0</v>
-      </c>
-      <c r="B4" s="13">
-        <v>0</v>
-      </c>
-      <c r="C4" s="13">
-        <v>0</v>
-      </c>
-      <c r="D4" s="13">
-        <v>0</v>
-      </c>
-      <c r="E4" s="13">
-        <v>0</v>
-      </c>
-      <c r="F4" s="13">
-        <v>0</v>
-      </c>
-      <c r="G4" s="13">
-        <v>0</v>
-      </c>
-      <c r="H4" s="13">
-        <v>0</v>
-      </c>
-      <c r="I4" s="13">
-        <v>0</v>
-      </c>
-      <c r="J4" s="13">
-        <v>0</v>
-      </c>
-      <c r="K4" s="13">
-        <v>0</v>
-      </c>
-      <c r="L4" s="13">
-        <v>0</v>
-      </c>
-      <c r="M4" s="13">
-        <v>0</v>
-      </c>
-      <c r="N4" s="13">
-        <v>0</v>
-      </c>
-      <c r="O4" s="13">
-        <v>0</v>
-      </c>
-      <c r="P4" s="13">
+      <c r="A4" s="20">
+        <v>0</v>
+      </c>
+      <c r="B4" s="20">
+        <v>0</v>
+      </c>
+      <c r="C4" s="20">
+        <v>0</v>
+      </c>
+      <c r="D4" s="20">
+        <v>0</v>
+      </c>
+      <c r="E4" s="20">
+        <v>0</v>
+      </c>
+      <c r="F4" s="20">
+        <v>0</v>
+      </c>
+      <c r="G4" s="20">
+        <v>0</v>
+      </c>
+      <c r="H4" s="20">
+        <v>0</v>
+      </c>
+      <c r="I4" s="20">
+        <v>0</v>
+      </c>
+      <c r="J4" s="20">
+        <v>0</v>
+      </c>
+      <c r="K4" s="20">
+        <v>0</v>
+      </c>
+      <c r="L4" s="20">
+        <v>0</v>
+      </c>
+      <c r="M4" s="20">
+        <v>0</v>
+      </c>
+      <c r="N4" s="20">
+        <v>0</v>
+      </c>
+      <c r="O4" s="20">
+        <v>0</v>
+      </c>
+      <c r="P4" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="13">
-        <v>0</v>
-      </c>
-      <c r="B5" s="13">
-        <v>0</v>
-      </c>
-      <c r="C5" s="13">
-        <v>0</v>
-      </c>
-      <c r="D5" s="13">
-        <v>0</v>
-      </c>
-      <c r="E5" s="13">
-        <v>0</v>
-      </c>
-      <c r="F5" s="13">
-        <v>0</v>
-      </c>
-      <c r="G5" s="13">
-        <v>0</v>
-      </c>
-      <c r="H5" s="13">
-        <v>0</v>
-      </c>
-      <c r="I5" s="13">
-        <v>0</v>
-      </c>
-      <c r="J5" s="13">
-        <v>0</v>
-      </c>
-      <c r="K5" s="13">
-        <v>0</v>
-      </c>
-      <c r="L5" s="13">
-        <v>0</v>
-      </c>
-      <c r="M5" s="13">
-        <v>0</v>
-      </c>
-      <c r="N5" s="13">
-        <v>0</v>
-      </c>
-      <c r="O5" s="13">
-        <v>0</v>
-      </c>
-      <c r="P5" s="13">
+      <c r="A5" s="20">
+        <v>0</v>
+      </c>
+      <c r="B5" s="20">
+        <v>0</v>
+      </c>
+      <c r="C5" s="20">
+        <v>0</v>
+      </c>
+      <c r="D5" s="20">
+        <v>0</v>
+      </c>
+      <c r="E5" s="20">
+        <v>0</v>
+      </c>
+      <c r="F5" s="20">
+        <v>0</v>
+      </c>
+      <c r="G5" s="20">
+        <v>0</v>
+      </c>
+      <c r="H5" s="20">
+        <v>0</v>
+      </c>
+      <c r="I5" s="20">
+        <v>0</v>
+      </c>
+      <c r="J5" s="20">
+        <v>0</v>
+      </c>
+      <c r="K5" s="20">
+        <v>0</v>
+      </c>
+      <c r="L5" s="20">
+        <v>0</v>
+      </c>
+      <c r="M5" s="20">
+        <v>0</v>
+      </c>
+      <c r="N5" s="20">
+        <v>0</v>
+      </c>
+      <c r="O5" s="20">
+        <v>0</v>
+      </c>
+      <c r="P5" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="13">
-        <v>0</v>
-      </c>
-      <c r="B6" s="13">
-        <v>0</v>
-      </c>
-      <c r="C6" s="13">
-        <v>0</v>
-      </c>
-      <c r="D6" s="13">
-        <v>0</v>
-      </c>
-      <c r="E6" s="13">
-        <v>0</v>
-      </c>
-      <c r="F6" s="13">
-        <v>0</v>
-      </c>
-      <c r="G6" s="13">
-        <v>0</v>
-      </c>
-      <c r="H6" s="13">
-        <v>0</v>
-      </c>
-      <c r="I6" s="13">
-        <v>0</v>
-      </c>
-      <c r="J6" s="13">
-        <v>0</v>
-      </c>
-      <c r="K6" s="13">
-        <v>0</v>
-      </c>
-      <c r="L6" s="13">
-        <v>0</v>
-      </c>
-      <c r="M6" s="13">
-        <v>0</v>
-      </c>
-      <c r="N6" s="13">
-        <v>0</v>
-      </c>
-      <c r="O6" s="13">
-        <v>0</v>
-      </c>
-      <c r="P6" s="13">
+      <c r="A6" s="20">
+        <v>0</v>
+      </c>
+      <c r="B6" s="20">
+        <v>0</v>
+      </c>
+      <c r="C6" s="20">
+        <v>0</v>
+      </c>
+      <c r="D6" s="20">
+        <v>0</v>
+      </c>
+      <c r="E6" s="20">
+        <v>0</v>
+      </c>
+      <c r="F6" s="20">
+        <v>0</v>
+      </c>
+      <c r="G6" s="20">
+        <v>0</v>
+      </c>
+      <c r="H6" s="20">
+        <v>0</v>
+      </c>
+      <c r="I6" s="20">
+        <v>0</v>
+      </c>
+      <c r="J6" s="20">
+        <v>0</v>
+      </c>
+      <c r="K6" s="20">
+        <v>0</v>
+      </c>
+      <c r="L6" s="20">
+        <v>0</v>
+      </c>
+      <c r="M6" s="20">
+        <v>0</v>
+      </c>
+      <c r="N6" s="20">
+        <v>0</v>
+      </c>
+      <c r="O6" s="20">
+        <v>0</v>
+      </c>
+      <c r="P6" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="13">
-        <v>0</v>
-      </c>
-      <c r="B7" s="13">
-        <v>0</v>
-      </c>
-      <c r="C7" s="13">
-        <v>0</v>
-      </c>
-      <c r="D7" s="13">
-        <v>0</v>
-      </c>
-      <c r="E7" s="13">
-        <v>0</v>
-      </c>
-      <c r="F7" s="13">
-        <v>0</v>
-      </c>
-      <c r="G7" s="13">
-        <v>0</v>
-      </c>
-      <c r="H7" s="13">
-        <v>0</v>
-      </c>
-      <c r="I7" s="13">
-        <v>0</v>
-      </c>
-      <c r="J7" s="13">
-        <v>0</v>
-      </c>
-      <c r="K7" s="13">
-        <v>0</v>
-      </c>
-      <c r="L7" s="13">
-        <v>0</v>
-      </c>
-      <c r="M7" s="13">
-        <v>0</v>
-      </c>
-      <c r="N7" s="13">
-        <v>0</v>
-      </c>
-      <c r="O7" s="13">
-        <v>0</v>
-      </c>
-      <c r="P7" s="13">
+      <c r="A7" s="20">
+        <v>0</v>
+      </c>
+      <c r="B7" s="20">
+        <v>0</v>
+      </c>
+      <c r="C7" s="20">
+        <v>0</v>
+      </c>
+      <c r="D7" s="20">
+        <v>0</v>
+      </c>
+      <c r="E7" s="20">
+        <v>0</v>
+      </c>
+      <c r="F7" s="20">
+        <v>0</v>
+      </c>
+      <c r="G7" s="20">
+        <v>0</v>
+      </c>
+      <c r="H7" s="20">
+        <v>0</v>
+      </c>
+      <c r="I7" s="20">
+        <v>0</v>
+      </c>
+      <c r="J7" s="20">
+        <v>0</v>
+      </c>
+      <c r="K7" s="20">
+        <v>0</v>
+      </c>
+      <c r="L7" s="20">
+        <v>0</v>
+      </c>
+      <c r="M7" s="20">
+        <v>0</v>
+      </c>
+      <c r="N7" s="20">
+        <v>0</v>
+      </c>
+      <c r="O7" s="20">
+        <v>0</v>
+      </c>
+      <c r="P7" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="13">
-        <v>0</v>
-      </c>
-      <c r="B8" s="13">
-        <v>0</v>
-      </c>
-      <c r="C8" s="13">
-        <v>0</v>
-      </c>
-      <c r="D8" s="13">
-        <v>0</v>
-      </c>
-      <c r="E8" s="13">
-        <v>0</v>
-      </c>
-      <c r="F8" s="13">
-        <v>0</v>
-      </c>
-      <c r="G8" s="13">
-        <v>0</v>
-      </c>
-      <c r="H8" s="13">
-        <v>0</v>
-      </c>
-      <c r="I8" s="13">
-        <v>0</v>
-      </c>
-      <c r="J8" s="13">
-        <v>0</v>
-      </c>
-      <c r="K8" s="13">
-        <v>0</v>
-      </c>
-      <c r="L8" s="13">
-        <v>0</v>
-      </c>
-      <c r="M8" s="13">
-        <v>0</v>
-      </c>
-      <c r="N8" s="13">
-        <v>0</v>
-      </c>
-      <c r="O8" s="13">
-        <v>0</v>
-      </c>
-      <c r="P8" s="13">
+      <c r="A8" s="20">
+        <v>0</v>
+      </c>
+      <c r="B8" s="20">
+        <v>0</v>
+      </c>
+      <c r="C8" s="20">
+        <v>0</v>
+      </c>
+      <c r="D8" s="20">
+        <v>0</v>
+      </c>
+      <c r="E8" s="20">
+        <v>0</v>
+      </c>
+      <c r="F8" s="20">
+        <v>0</v>
+      </c>
+      <c r="G8" s="20">
+        <v>0</v>
+      </c>
+      <c r="H8" s="20">
+        <v>0</v>
+      </c>
+      <c r="I8" s="20">
+        <v>0</v>
+      </c>
+      <c r="J8" s="20">
+        <v>0</v>
+      </c>
+      <c r="K8" s="20">
+        <v>0</v>
+      </c>
+      <c r="L8" s="20">
+        <v>0</v>
+      </c>
+      <c r="M8" s="20">
+        <v>0</v>
+      </c>
+      <c r="N8" s="20">
+        <v>0</v>
+      </c>
+      <c r="O8" s="20">
+        <v>0</v>
+      </c>
+      <c r="P8" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="13">
-        <v>0</v>
-      </c>
-      <c r="B9" s="13">
-        <v>0</v>
-      </c>
-      <c r="C9" s="13">
-        <v>0</v>
-      </c>
-      <c r="D9" s="13">
-        <v>0</v>
-      </c>
-      <c r="E9" s="13">
-        <v>0</v>
-      </c>
-      <c r="F9" s="13">
-        <v>0</v>
-      </c>
-      <c r="G9" s="13">
-        <v>0</v>
-      </c>
-      <c r="H9" s="13">
-        <v>0</v>
-      </c>
-      <c r="I9" s="13">
-        <v>0</v>
-      </c>
-      <c r="J9" s="13">
-        <v>0</v>
-      </c>
-      <c r="K9" s="13">
-        <v>0</v>
-      </c>
-      <c r="L9" s="13">
-        <v>0</v>
-      </c>
-      <c r="M9" s="13">
-        <v>0</v>
-      </c>
-      <c r="N9" s="13">
-        <v>0</v>
-      </c>
-      <c r="O9" s="13">
-        <v>0</v>
-      </c>
-      <c r="P9" s="13">
+      <c r="A9" s="20">
+        <v>0</v>
+      </c>
+      <c r="B9" s="20">
+        <v>0</v>
+      </c>
+      <c r="C9" s="20">
+        <v>0</v>
+      </c>
+      <c r="D9" s="20">
+        <v>0</v>
+      </c>
+      <c r="E9" s="20">
+        <v>0</v>
+      </c>
+      <c r="F9" s="20">
+        <v>0</v>
+      </c>
+      <c r="G9" s="20">
+        <v>0</v>
+      </c>
+      <c r="H9" s="20">
+        <v>0</v>
+      </c>
+      <c r="I9" s="20">
+        <v>0</v>
+      </c>
+      <c r="J9" s="20">
+        <v>0</v>
+      </c>
+      <c r="K9" s="20">
+        <v>0</v>
+      </c>
+      <c r="L9" s="20">
+        <v>0</v>
+      </c>
+      <c r="M9" s="20">
+        <v>0</v>
+      </c>
+      <c r="N9" s="20">
+        <v>0</v>
+      </c>
+      <c r="O9" s="20">
+        <v>0</v>
+      </c>
+      <c r="P9" s="20">
         <v>0</v>
       </c>
     </row>
@@ -1909,390 +1931,390 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="5" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="18" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.125" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.625" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.375" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.625" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.125" style="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.625" style="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="15.75" style="18"/>
+    <col min="1" max="1" width="5" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.25" style="17" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.125" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.625" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.625" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.125" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.625" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="15.75" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17" t="s">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="17" t="s">
+      <c r="C1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="16" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="19" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="21">
+      <c r="A4" s="20">
         <v>1</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="20">
         <f>A4+302000</f>
         <v>302001</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="20">
         <f>C4+1000</f>
         <v>303001</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="20">
         <v>1</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="20">
         <v>5</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="20">
         <v>100</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="20">
         <v>50</v>
       </c>
-      <c r="I4" s="21">
-        <v>0</v>
-      </c>
-      <c r="J4" s="21">
+      <c r="I4" s="20">
+        <v>0</v>
+      </c>
+      <c r="J4" s="20">
         <v>1</v>
       </c>
-      <c r="K4" s="21">
+      <c r="K4" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="21">
+      <c r="A5" s="20">
         <f>A4+1</f>
         <v>2</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="20">
         <f t="shared" ref="C5:C10" si="0">A5+302000</f>
         <v>302002</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="20">
         <f t="shared" ref="D5:D10" si="1">C5+1000</f>
         <v>303002</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="20">
         <v>2</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="20">
         <v>10</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="20">
         <v>150</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="20">
         <v>100</v>
       </c>
-      <c r="I5" s="21">
-        <v>0</v>
-      </c>
-      <c r="J5" s="21">
+      <c r="I5" s="20">
+        <v>0</v>
+      </c>
+      <c r="J5" s="20">
         <v>2</v>
       </c>
-      <c r="K5" s="21">
+      <c r="K5" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="21">
+      <c r="A6" s="20">
         <f t="shared" ref="A6:A7" si="2">A5+1</f>
         <v>3</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="20">
         <f t="shared" si="0"/>
         <v>302003</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="20">
         <f t="shared" si="1"/>
         <v>303003</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="20">
         <v>3</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="20">
         <v>50</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="20">
         <v>200</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="20">
         <v>150</v>
       </c>
-      <c r="I6" s="21">
-        <v>0</v>
-      </c>
-      <c r="J6" s="21">
+      <c r="I6" s="20">
+        <v>0</v>
+      </c>
+      <c r="J6" s="20">
         <v>3</v>
       </c>
-      <c r="K6" s="21">
+      <c r="K6" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="21">
+      <c r="A7" s="20">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="20">
         <f t="shared" si="0"/>
         <v>302004</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="20">
         <f t="shared" si="1"/>
         <v>303004</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="20">
         <v>3</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="20">
         <v>30</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="20">
         <v>150</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="20">
         <v>100</v>
       </c>
-      <c r="I7" s="21">
-        <v>0</v>
-      </c>
-      <c r="J7" s="21">
+      <c r="I7" s="20">
+        <v>0</v>
+      </c>
+      <c r="J7" s="20">
         <v>4</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K7" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="21">
+      <c r="A8" s="20">
         <v>5</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="20">
         <f t="shared" ref="C8" si="3">A8+302000</f>
         <v>302005</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="20">
         <f t="shared" ref="D8" si="4">C8+1000</f>
         <v>303005</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="20">
         <v>2</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="20">
         <v>10</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="20">
         <v>100</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="20">
         <v>50</v>
       </c>
-      <c r="I8" s="21">
-        <v>0</v>
-      </c>
-      <c r="J8" s="21">
+      <c r="I8" s="20">
+        <v>0</v>
+      </c>
+      <c r="J8" s="20">
         <v>5</v>
       </c>
-      <c r="K8" s="21">
+      <c r="K8" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="21">
+      <c r="A9" s="20">
         <v>6</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="20">
         <f t="shared" si="0"/>
         <v>302006</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="20">
         <f t="shared" si="1"/>
         <v>303006</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="20">
         <v>3</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="20">
         <v>100</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="20">
         <v>300</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="20">
         <v>250</v>
       </c>
-      <c r="I9" s="21">
-        <v>0</v>
-      </c>
-      <c r="J9" s="21">
+      <c r="I9" s="20">
+        <v>0</v>
+      </c>
+      <c r="J9" s="20">
         <v>6</v>
       </c>
-      <c r="K9" s="21">
+      <c r="K9" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="21">
+      <c r="A10" s="20">
         <v>7</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="20">
         <f t="shared" si="0"/>
         <v>302007</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="20">
         <f t="shared" si="1"/>
         <v>303007</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="20">
         <v>2</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="20">
         <v>5</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="20">
         <v>100</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="20">
         <v>50</v>
       </c>
-      <c r="I10" s="21">
-        <v>0</v>
-      </c>
-      <c r="J10" s="21">
+      <c r="I10" s="20">
+        <v>0</v>
+      </c>
+      <c r="J10" s="20">
         <v>7</v>
       </c>
-      <c r="K10" s="21">
+      <c r="K10" s="20">
         <v>0</v>
       </c>
     </row>
@@ -2307,516 +2329,516 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.125" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="9.75" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.625" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.25" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.625" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.375" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.125" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.125" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.375" style="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18" style="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.875" style="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.625" style="18" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="24.125" style="18"/>
+    <col min="1" max="1" width="9.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.625" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.625" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.125" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.125" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.625" style="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="24.125" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17" t="s">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="17" t="s">
+      <c r="C1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="17" t="s">
+      <c r="E1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="H1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="17" t="s">
+      <c r="H1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="J1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="17" t="s">
+      <c r="J1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="L1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="17" t="s">
+      <c r="L1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="O1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" s="17" t="s">
+      <c r="O1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="16" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="N2" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="O2" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="P2" s="19" t="s">
+      <c r="P2" s="18" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="M3" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="N3" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="O3" s="20" t="s">
+      <c r="O3" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="P3" s="20" t="s">
+      <c r="P3" s="19" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="23">
+      <c r="A4" s="22">
         <v>1</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="22">
         <v>1</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="E4" s="23">
-        <v>0</v>
-      </c>
-      <c r="F4" s="23">
-        <v>0</v>
-      </c>
-      <c r="G4" s="23" t="s">
+      <c r="E4" s="22">
+        <v>0</v>
+      </c>
+      <c r="F4" s="22">
+        <v>0</v>
+      </c>
+      <c r="G4" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="H4" s="23">
-        <v>0</v>
-      </c>
-      <c r="I4" s="23" t="s">
+      <c r="H4" s="22">
+        <v>0</v>
+      </c>
+      <c r="I4" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="J4" s="23">
-        <v>0</v>
-      </c>
-      <c r="K4" s="23">
-        <v>0</v>
-      </c>
-      <c r="L4" s="23">
+      <c r="J4" s="22">
+        <v>0</v>
+      </c>
+      <c r="K4" s="22">
+        <v>0</v>
+      </c>
+      <c r="L4" s="22">
         <v>100</v>
       </c>
-      <c r="M4" s="23">
-        <v>0</v>
-      </c>
-      <c r="N4" s="23" t="s">
+      <c r="M4" s="22">
+        <v>0</v>
+      </c>
+      <c r="N4" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="O4" s="23">
-        <v>0</v>
-      </c>
-      <c r="P4" s="23"/>
+      <c r="O4" s="22">
+        <v>0</v>
+      </c>
+      <c r="P4" s="22"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="23">
+      <c r="A5" s="22">
         <v>2</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="22">
         <v>2</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="E5" s="23">
-        <v>0</v>
-      </c>
-      <c r="F5" s="23">
-        <v>0</v>
-      </c>
-      <c r="G5" s="23" t="s">
+      <c r="E5" s="22">
+        <v>0</v>
+      </c>
+      <c r="F5" s="22">
+        <v>0</v>
+      </c>
+      <c r="G5" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="22">
         <v>1</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="22">
         <v>3</v>
       </c>
-      <c r="K5" s="23" t="s">
+      <c r="K5" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5" s="22">
         <v>100</v>
       </c>
-      <c r="M5" s="23">
+      <c r="M5" s="22">
         <v>1</v>
       </c>
-      <c r="N5" s="23" t="s">
+      <c r="N5" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="O5" s="23">
-        <v>0</v>
-      </c>
-      <c r="P5" s="23"/>
+      <c r="O5" s="22">
+        <v>0</v>
+      </c>
+      <c r="P5" s="22"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="23">
+      <c r="A6" s="22">
         <v>3</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="22">
         <v>3</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="E6" s="23">
-        <v>0</v>
-      </c>
-      <c r="F6" s="23">
-        <v>0</v>
-      </c>
-      <c r="G6" s="23" t="s">
+      <c r="E6" s="22">
+        <v>0</v>
+      </c>
+      <c r="F6" s="22">
+        <v>0</v>
+      </c>
+      <c r="G6" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="H6" s="23">
-        <v>0</v>
-      </c>
-      <c r="I6" s="23" t="s">
+      <c r="H6" s="22">
+        <v>0</v>
+      </c>
+      <c r="I6" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="J6" s="23">
-        <v>0</v>
-      </c>
-      <c r="K6" s="23">
-        <v>0</v>
-      </c>
-      <c r="L6" s="23">
+      <c r="J6" s="22">
+        <v>0</v>
+      </c>
+      <c r="K6" s="22">
+        <v>0</v>
+      </c>
+      <c r="L6" s="22">
         <v>100</v>
       </c>
-      <c r="M6" s="23">
+      <c r="M6" s="22">
         <v>2</v>
       </c>
-      <c r="N6" s="23" t="s">
+      <c r="N6" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="O6" s="23">
+      <c r="O6" s="22">
         <v>50</v>
       </c>
-      <c r="P6" s="23"/>
+      <c r="P6" s="22"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="23">
+      <c r="A7" s="22">
         <v>4</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="22">
         <v>4</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="H7" s="23">
-        <v>0</v>
-      </c>
-      <c r="I7" s="23" t="s">
+      <c r="H7" s="22">
+        <v>0</v>
+      </c>
+      <c r="I7" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="J7" s="23">
-        <v>0</v>
-      </c>
-      <c r="K7" s="23">
-        <v>0</v>
-      </c>
-      <c r="L7" s="23">
+      <c r="J7" s="22">
+        <v>0</v>
+      </c>
+      <c r="K7" s="22">
+        <v>0</v>
+      </c>
+      <c r="L7" s="22">
         <v>100</v>
       </c>
-      <c r="M7" s="23">
+      <c r="M7" s="22">
         <v>3</v>
       </c>
-      <c r="N7" s="23" t="s">
+      <c r="N7" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="O7" s="23">
+      <c r="O7" s="22">
         <v>1</v>
       </c>
-      <c r="P7" s="23"/>
+      <c r="P7" s="22"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="23">
+      <c r="A8" s="22">
         <v>5</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="22">
         <v>5</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="22">
         <v>2</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="H8" s="23">
-        <v>0</v>
-      </c>
-      <c r="I8" s="23" t="s">
+      <c r="H8" s="22">
+        <v>0</v>
+      </c>
+      <c r="I8" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="J8" s="23">
-        <v>0</v>
-      </c>
-      <c r="K8" s="23">
-        <v>0</v>
-      </c>
-      <c r="L8" s="23">
+      <c r="J8" s="22">
+        <v>0</v>
+      </c>
+      <c r="K8" s="22">
+        <v>0</v>
+      </c>
+      <c r="L8" s="22">
         <v>100</v>
       </c>
-      <c r="M8" s="23">
+      <c r="M8" s="22">
         <v>1</v>
       </c>
-      <c r="N8" s="23" t="s">
+      <c r="N8" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="O8" s="23">
-        <v>0</v>
-      </c>
-      <c r="P8" s="23"/>
+      <c r="O8" s="22">
+        <v>0</v>
+      </c>
+      <c r="P8" s="22"/>
     </row>
     <row r="9" spans="1:16" ht="27">
-      <c r="A9" s="23">
+      <c r="A9" s="22">
         <v>6</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="22">
         <v>6</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="H9" s="23">
-        <v>0</v>
-      </c>
-      <c r="I9" s="23" t="s">
+      <c r="H9" s="22">
+        <v>0</v>
+      </c>
+      <c r="I9" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="J9" s="23">
-        <v>0</v>
-      </c>
-      <c r="K9" s="23">
-        <v>0</v>
-      </c>
-      <c r="L9" s="23">
+      <c r="J9" s="22">
+        <v>0</v>
+      </c>
+      <c r="K9" s="22">
+        <v>0</v>
+      </c>
+      <c r="L9" s="22">
         <v>100</v>
       </c>
-      <c r="M9" s="23">
+      <c r="M9" s="22">
         <v>5</v>
       </c>
-      <c r="N9" s="23" t="s">
+      <c r="N9" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="O9" s="23">
-        <v>0</v>
-      </c>
-      <c r="P9" s="23"/>
+      <c r="O9" s="22">
+        <v>0</v>
+      </c>
+      <c r="P9" s="22"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="23">
+      <c r="A10" s="22">
         <v>7</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="22">
         <v>7</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="E10" s="23">
-        <v>0</v>
-      </c>
-      <c r="F10" s="23">
-        <v>0</v>
-      </c>
-      <c r="G10" s="23" t="s">
+      <c r="E10" s="22">
+        <v>0</v>
+      </c>
+      <c r="F10" s="22">
+        <v>0</v>
+      </c>
+      <c r="G10" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="H10" s="23">
-        <v>0</v>
-      </c>
-      <c r="I10" s="23" t="s">
+      <c r="H10" s="22">
+        <v>0</v>
+      </c>
+      <c r="I10" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="J10" s="23">
-        <v>0</v>
-      </c>
-      <c r="K10" s="23">
-        <v>0</v>
-      </c>
-      <c r="L10" s="23">
+      <c r="J10" s="22">
+        <v>0</v>
+      </c>
+      <c r="K10" s="22">
+        <v>0</v>
+      </c>
+      <c r="L10" s="22">
         <v>100</v>
       </c>
-      <c r="M10" s="23">
+      <c r="M10" s="22">
         <v>6</v>
       </c>
-      <c r="N10" s="23" t="s">
+      <c r="N10" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="O10" s="23">
+      <c r="O10" s="22">
         <v>3</v>
       </c>
-      <c r="P10" s="23"/>
+      <c r="P10" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2834,88 +2856,88 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.375" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="22.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65.5" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="16.375" style="6"/>
+    <col min="1" max="1" width="11.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="22.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.5" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="16.375" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="8"/>
+      <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2929,7 +2951,7 @@
       <c r="C9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2943,7 +2965,7 @@
       <c r="C10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2957,7 +2979,7 @@
       <c r="C11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="11" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2971,7 +2993,7 @@
       <c r="C12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="21" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2985,7 +3007,7 @@
       <c r="C13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="11" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2999,7 +3021,7 @@
       <c r="C14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="11" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3013,7 +3035,7 @@
       <c r="C15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="11" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3027,7 +3049,7 @@
       <c r="C16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="21" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3041,7 +3063,7 @@
       <c r="C17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="11" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3055,7 +3077,7 @@
       <c r="C18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="11" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3069,29 +3091,29 @@
       <c r="C19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="14" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3105,7 +3127,7 @@
       <c r="C26" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="15" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3119,7 +3141,7 @@
       <c r="C27" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="15" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3133,7 +3155,7 @@
       <c r="C28" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="15" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3147,7 +3169,7 @@
       <c r="C29" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="15" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3161,7 +3183,7 @@
       <c r="C30" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="15" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3175,7 +3197,7 @@
       <c r="C31" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3189,7 +3211,7 @@
       <c r="C32" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="15" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3203,7 +3225,7 @@
       <c r="C33" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="15" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3217,7 +3239,7 @@
       <c r="C34" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="15" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3231,7 +3253,7 @@
       <c r="C35" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="10" t="s">
         <v>77</v>
       </c>
     </row>

--- a/0_File/1_Data/003_武器表.xlsx
+++ b/0_File/1_Data/003_武器表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponDataInUnity" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="157">
   <si>
     <t>int</t>
   </si>
@@ -500,6 +500,88 @@
   <si>
     <t>#</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手槍子彈</t>
+  </si>
+  <si>
+    <t>直線</t>
+  </si>
+  <si>
+    <t>不可抵銷</t>
+  </si>
+  <si>
+    <t>無，超出範圍後</t>
+  </si>
+  <si>
+    <t>機槍子彈</t>
+  </si>
+  <si>
+    <t>可抵消</t>
+  </si>
+  <si>
+    <t>抵擋幾發子彈</t>
+  </si>
+  <si>
+    <t>抵達目標 (命中目標)</t>
+  </si>
+  <si>
+    <t>狙擊槍子彈</t>
+  </si>
+  <si>
+    <t>貫通</t>
+  </si>
+  <si>
+    <t>飛行多久消失</t>
+  </si>
+  <si>
+    <t>散彈槍子彈</t>
+  </si>
+  <si>
+    <t>散射</t>
+  </si>
+  <si>
+    <t>30,3</t>
+  </si>
+  <si>
+    <t>填寫角色前方散彈發射角度、填寫發射範圍格數</t>
+  </si>
+  <si>
+    <t>擊中目標幾次</t>
+  </si>
+  <si>
+    <t>分裂子彈</t>
+  </si>
+  <si>
+    <t>分裂</t>
+  </si>
+  <si>
+    <t>命中後分裂幾顆，分裂的子彈會自動找敵人</t>
+  </si>
+  <si>
+    <t>拋物線子彈</t>
+  </si>
+  <si>
+    <t>拋射</t>
+  </si>
+  <si>
+    <t>3,1</t>
+  </si>
+  <si>
+    <t>1.投射物落地距離自己的位置直線多遠
+2.擴散範圍幾格 (按照落地點中心上下左右單格)</t>
+  </si>
+  <si>
+    <t>抵達指定格子後</t>
+  </si>
+  <si>
+    <t>彈射子彈</t>
+  </si>
+  <si>
+    <t>彈射</t>
+  </si>
+  <si>
+    <t>命中幾個人後結束 (彈射用)</t>
   </si>
 </sst>
 </file>
@@ -1031,10 +1113,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="16.5"/>
@@ -1051,7 +1133,7 @@
     <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27">
+    <row r="1" spans="1:10">
       <c r="A1" s="18" t="s">
         <v>2</v>
       </c>
@@ -1085,31 +1167,31 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="12">
-        <v>0</v>
+        <v>302001</v>
       </c>
       <c r="C2" s="12">
-        <v>0</v>
+        <v>303001</v>
       </c>
       <c r="D2" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F2" s="12">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" s="12">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H2" s="12">
         <v>0</v>
       </c>
       <c r="I2" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" s="12">
         <v>0</v>
@@ -1117,31 +1199,31 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="12">
-        <v>0</v>
+        <v>302002</v>
       </c>
       <c r="C3" s="12">
-        <v>0</v>
+        <v>303002</v>
       </c>
       <c r="D3" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E3" s="12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F3" s="12">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G3" s="12">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H3" s="12">
         <v>0</v>
       </c>
       <c r="I3" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" s="12">
         <v>0</v>
@@ -1149,31 +1231,31 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="12">
-        <v>0</v>
+        <v>302003</v>
       </c>
       <c r="C4" s="12">
-        <v>0</v>
+        <v>303003</v>
       </c>
       <c r="D4" s="12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E4" s="12">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F4" s="12">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G4" s="12">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="H4" s="12">
         <v>0</v>
       </c>
       <c r="I4" s="12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J4" s="12">
         <v>0</v>
@@ -1181,31 +1263,31 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="12">
-        <v>0</v>
+        <v>302004</v>
       </c>
       <c r="C5" s="12">
-        <v>0</v>
+        <v>303004</v>
       </c>
       <c r="D5" s="12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E5" s="12">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F5" s="12">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G5" s="12">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H5" s="12">
         <v>0</v>
       </c>
       <c r="I5" s="12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J5" s="12">
         <v>0</v>
@@ -1213,31 +1295,31 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="12">
-        <v>0</v>
+        <v>302005</v>
       </c>
       <c r="C6" s="12">
-        <v>0</v>
+        <v>303005</v>
       </c>
       <c r="D6" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E6" s="12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F6" s="12">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G6" s="12">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H6" s="12">
         <v>0</v>
       </c>
       <c r="I6" s="12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J6" s="12">
         <v>0</v>
@@ -1245,31 +1327,31 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="12">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="12">
-        <v>0</v>
+        <v>302006</v>
       </c>
       <c r="C7" s="12">
-        <v>0</v>
+        <v>303006</v>
       </c>
       <c r="D7" s="12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E7" s="12">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F7" s="12">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G7" s="12">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="H7" s="12">
         <v>0</v>
       </c>
       <c r="I7" s="12">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J7" s="12">
         <v>0</v>
@@ -1277,161 +1359,33 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="12">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="12">
-        <v>0</v>
+        <v>302007</v>
       </c>
       <c r="C8" s="12">
-        <v>0</v>
+        <v>303007</v>
       </c>
       <c r="D8" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E8" s="12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F8" s="12">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G8" s="12">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H8" s="12">
         <v>0</v>
       </c>
       <c r="I8" s="12">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J8" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="12">
-        <v>0</v>
-      </c>
-      <c r="B9" s="12">
-        <v>0</v>
-      </c>
-      <c r="C9" s="12">
-        <v>0</v>
-      </c>
-      <c r="D9" s="12">
-        <v>0</v>
-      </c>
-      <c r="E9" s="12">
-        <v>0</v>
-      </c>
-      <c r="F9" s="12">
-        <v>0</v>
-      </c>
-      <c r="G9" s="12">
-        <v>0</v>
-      </c>
-      <c r="H9" s="12">
-        <v>0</v>
-      </c>
-      <c r="I9" s="12">
-        <v>0</v>
-      </c>
-      <c r="J9" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="12">
-        <v>0</v>
-      </c>
-      <c r="B10" s="12">
-        <v>0</v>
-      </c>
-      <c r="C10" s="12">
-        <v>0</v>
-      </c>
-      <c r="D10" s="12">
-        <v>0</v>
-      </c>
-      <c r="E10" s="12">
-        <v>0</v>
-      </c>
-      <c r="F10" s="12">
-        <v>0</v>
-      </c>
-      <c r="G10" s="12">
-        <v>0</v>
-      </c>
-      <c r="H10" s="12">
-        <v>0</v>
-      </c>
-      <c r="I10" s="12">
-        <v>0</v>
-      </c>
-      <c r="J10" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="12">
-        <v>0</v>
-      </c>
-      <c r="B11" s="12">
-        <v>0</v>
-      </c>
-      <c r="C11" s="12">
-        <v>0</v>
-      </c>
-      <c r="D11" s="12">
-        <v>0</v>
-      </c>
-      <c r="E11" s="12">
-        <v>0</v>
-      </c>
-      <c r="F11" s="12">
-        <v>0</v>
-      </c>
-      <c r="G11" s="12">
-        <v>0</v>
-      </c>
-      <c r="H11" s="12">
-        <v>0</v>
-      </c>
-      <c r="I11" s="12">
-        <v>0</v>
-      </c>
-      <c r="J11" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="12">
-        <v>0</v>
-      </c>
-      <c r="B12" s="12">
-        <v>0</v>
-      </c>
-      <c r="C12" s="12">
-        <v>0</v>
-      </c>
-      <c r="D12" s="12">
-        <v>0</v>
-      </c>
-      <c r="E12" s="12">
-        <v>0</v>
-      </c>
-      <c r="F12" s="12">
-        <v>0</v>
-      </c>
-      <c r="G12" s="12">
-        <v>0</v>
-      </c>
-      <c r="H12" s="12">
-        <v>0</v>
-      </c>
-      <c r="I12" s="12">
-        <v>0</v>
-      </c>
-      <c r="J12" s="12">
         <v>0</v>
       </c>
     </row>
@@ -1444,10 +1398,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.75" defaultRowHeight="16.5"/>
@@ -1457,8 +1411,8 @@
     <col min="3" max="3" width="16.25" style="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2.875" style="24" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.625" style="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.875" style="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.25" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.625" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="84" style="24" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.125" style="24" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="2.875" style="24" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.875" style="24" bestFit="1" customWidth="1"/>
@@ -1466,7 +1420,7 @@
     <col min="12" max="12" width="16.75" style="24" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.125" style="24" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="2.875" style="24" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.125" style="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.125" style="24" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.625" style="24" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="17.75" style="24"/>
   </cols>
@@ -1523,19 +1477,19 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="20">
-        <v>0</v>
-      </c>
-      <c r="C2" s="20">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>130</v>
       </c>
       <c r="D2" s="20">
-        <v>0</v>
-      </c>
-      <c r="E2" s="20">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>131</v>
       </c>
       <c r="F2" s="20">
         <v>0</v>
@@ -1543,14 +1497,14 @@
       <c r="G2" s="20">
         <v>0</v>
       </c>
-      <c r="H2" s="20">
-        <v>0</v>
+      <c r="H2" s="20" t="s">
+        <v>123</v>
       </c>
       <c r="I2" s="20">
         <v>0</v>
       </c>
-      <c r="J2" s="20">
-        <v>0</v>
+      <c r="J2" s="20" t="s">
+        <v>132</v>
       </c>
       <c r="K2" s="20">
         <v>0</v>
@@ -1559,13 +1513,13 @@
         <v>0</v>
       </c>
       <c r="M2" s="20">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N2" s="20">
         <v>0</v>
       </c>
-      <c r="O2" s="20">
-        <v>0</v>
+      <c r="O2" s="20" t="s">
+        <v>133</v>
       </c>
       <c r="P2" s="20">
         <v>0</v>
@@ -1573,19 +1527,19 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="20">
-        <v>0</v>
-      </c>
-      <c r="C3" s="20">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>134</v>
       </c>
       <c r="D3" s="20">
-        <v>0</v>
-      </c>
-      <c r="E3" s="20">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>131</v>
       </c>
       <c r="F3" s="20">
         <v>0</v>
@@ -1593,29 +1547,29 @@
       <c r="G3" s="20">
         <v>0</v>
       </c>
-      <c r="H3" s="20">
-        <v>0</v>
+      <c r="H3" s="20" t="s">
+        <v>123</v>
       </c>
       <c r="I3" s="20">
-        <v>0</v>
-      </c>
-      <c r="J3" s="20">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>135</v>
       </c>
       <c r="K3" s="20">
-        <v>0</v>
-      </c>
-      <c r="L3" s="20">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>136</v>
       </c>
       <c r="M3" s="20">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N3" s="20">
-        <v>0</v>
-      </c>
-      <c r="O3" s="20">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="O3" s="20" t="s">
+        <v>137</v>
       </c>
       <c r="P3" s="20">
         <v>0</v>
@@ -1623,19 +1577,19 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="20">
-        <v>0</v>
-      </c>
-      <c r="C4" s="20">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>138</v>
       </c>
       <c r="D4" s="20">
-        <v>0</v>
-      </c>
-      <c r="E4" s="20">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>139</v>
       </c>
       <c r="F4" s="20">
         <v>0</v>
@@ -1643,14 +1597,14 @@
       <c r="G4" s="20">
         <v>0</v>
       </c>
-      <c r="H4" s="20">
-        <v>0</v>
+      <c r="H4" s="20" t="s">
+        <v>123</v>
       </c>
       <c r="I4" s="20">
         <v>0</v>
       </c>
-      <c r="J4" s="20">
-        <v>0</v>
+      <c r="J4" s="20" t="s">
+        <v>132</v>
       </c>
       <c r="K4" s="20">
         <v>0</v>
@@ -1659,48 +1613,48 @@
         <v>0</v>
       </c>
       <c r="M4" s="20">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N4" s="20">
-        <v>0</v>
-      </c>
-      <c r="O4" s="20">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="O4" s="20" t="s">
+        <v>140</v>
       </c>
       <c r="P4" s="20">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="20">
-        <v>0</v>
-      </c>
-      <c r="C5" s="20">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>141</v>
       </c>
       <c r="D5" s="20">
-        <v>0</v>
-      </c>
-      <c r="E5" s="20">
-        <v>0</v>
-      </c>
-      <c r="F5" s="20">
-        <v>0</v>
-      </c>
-      <c r="G5" s="20">
-        <v>0</v>
-      </c>
-      <c r="H5" s="20">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>123</v>
       </c>
       <c r="I5" s="20">
         <v>0</v>
       </c>
-      <c r="J5" s="20">
-        <v>0</v>
+      <c r="J5" s="20" t="s">
+        <v>132</v>
       </c>
       <c r="K5" s="20">
         <v>0</v>
@@ -1709,48 +1663,48 @@
         <v>0</v>
       </c>
       <c r="M5" s="20">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N5" s="20">
-        <v>0</v>
-      </c>
-      <c r="O5" s="20">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="O5" s="20" t="s">
+        <v>145</v>
       </c>
       <c r="P5" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="20">
-        <v>0</v>
-      </c>
-      <c r="C6" s="20">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>146</v>
       </c>
       <c r="D6" s="20">
-        <v>0</v>
-      </c>
-      <c r="E6" s="20">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>147</v>
       </c>
       <c r="F6" s="20">
-        <v>0</v>
-      </c>
-      <c r="G6" s="20">
-        <v>0</v>
-      </c>
-      <c r="H6" s="20">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>123</v>
       </c>
       <c r="I6" s="20">
         <v>0</v>
       </c>
-      <c r="J6" s="20">
-        <v>0</v>
+      <c r="J6" s="20" t="s">
+        <v>132</v>
       </c>
       <c r="K6" s="20">
         <v>0</v>
@@ -1759,13 +1713,13 @@
         <v>0</v>
       </c>
       <c r="M6" s="20">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N6" s="20">
-        <v>0</v>
-      </c>
-      <c r="O6" s="20">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="O6" s="20" t="s">
+        <v>137</v>
       </c>
       <c r="P6" s="20">
         <v>0</v>
@@ -1773,34 +1727,34 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="20">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="20">
-        <v>0</v>
-      </c>
-      <c r="C7" s="20">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>149</v>
       </c>
       <c r="D7" s="20">
-        <v>0</v>
-      </c>
-      <c r="E7" s="20">
-        <v>0</v>
-      </c>
-      <c r="F7" s="20">
-        <v>0</v>
-      </c>
-      <c r="G7" s="20">
-        <v>0</v>
-      </c>
-      <c r="H7" s="20">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>123</v>
       </c>
       <c r="I7" s="20">
         <v>0</v>
       </c>
-      <c r="J7" s="20">
-        <v>0</v>
+      <c r="J7" s="20" t="s">
+        <v>132</v>
       </c>
       <c r="K7" s="20">
         <v>0</v>
@@ -1809,13 +1763,13 @@
         <v>0</v>
       </c>
       <c r="M7" s="20">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N7" s="20">
-        <v>0</v>
-      </c>
-      <c r="O7" s="20">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="O7" s="20" t="s">
+        <v>153</v>
       </c>
       <c r="P7" s="20">
         <v>0</v>
@@ -1823,19 +1777,19 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="20">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="20">
-        <v>0</v>
-      </c>
-      <c r="C8" s="20">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>154</v>
       </c>
       <c r="D8" s="20">
-        <v>0</v>
-      </c>
-      <c r="E8" s="20">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>155</v>
       </c>
       <c r="F8" s="20">
         <v>0</v>
@@ -1843,14 +1797,14 @@
       <c r="G8" s="20">
         <v>0</v>
       </c>
-      <c r="H8" s="20">
-        <v>0</v>
+      <c r="H8" s="20" t="s">
+        <v>123</v>
       </c>
       <c r="I8" s="20">
         <v>0</v>
       </c>
-      <c r="J8" s="20">
-        <v>0</v>
+      <c r="J8" s="20" t="s">
+        <v>132</v>
       </c>
       <c r="K8" s="20">
         <v>0</v>
@@ -1859,66 +1813,16 @@
         <v>0</v>
       </c>
       <c r="M8" s="20">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N8" s="20">
-        <v>0</v>
-      </c>
-      <c r="O8" s="20">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="O8" s="20" t="s">
+        <v>156</v>
       </c>
       <c r="P8" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="20">
-        <v>0</v>
-      </c>
-      <c r="B9" s="20">
-        <v>0</v>
-      </c>
-      <c r="C9" s="20">
-        <v>0</v>
-      </c>
-      <c r="D9" s="20">
-        <v>0</v>
-      </c>
-      <c r="E9" s="20">
-        <v>0</v>
-      </c>
-      <c r="F9" s="20">
-        <v>0</v>
-      </c>
-      <c r="G9" s="20">
-        <v>0</v>
-      </c>
-      <c r="H9" s="20">
-        <v>0</v>
-      </c>
-      <c r="I9" s="20">
-        <v>0</v>
-      </c>
-      <c r="J9" s="20">
-        <v>0</v>
-      </c>
-      <c r="K9" s="20">
-        <v>0</v>
-      </c>
-      <c r="L9" s="20">
-        <v>0</v>
-      </c>
-      <c r="M9" s="20">
-        <v>0</v>
-      </c>
-      <c r="N9" s="20">
-        <v>0</v>
-      </c>
-      <c r="O9" s="20">
-        <v>0</v>
-      </c>
-      <c r="P9" s="20">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1932,7 +1836,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="15.75"/>
@@ -2329,8 +2233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:P2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.125" defaultRowHeight="15.75"/>
